--- a/2020 Dems Category Mapping.xlsx
+++ b/2020 Dems Category Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boai-\Desktop\UnumAI\Colorado analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F8BAF1-7280-4DAC-A28F-4D752BDDD5B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ED2563-7447-4422-9273-C3F2464E1271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{1FE9E902-6E7E-4ED6-B158-A5A0FAF72474}"/>
+    <workbookView xWindow="1950" yWindow="825" windowWidth="15165" windowHeight="10695" xr2:uid="{1FE9E902-6E7E-4ED6-B158-A5A0FAF72474}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,46 +120,46 @@
     <t>Criminal Justice</t>
   </si>
   <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Impeachment</t>
+  </si>
+  <si>
+    <t>Law_Govt</t>
+  </si>
+  <si>
+    <t>Crime</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>War</t>
+  </si>
+  <si>
+    <t>Trade_Agr</t>
+  </si>
+  <si>
+    <t>ReprHealth</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>SocEq</t>
+  </si>
+  <si>
+    <t>Educ</t>
+  </si>
+  <si>
+    <t>Ethics</t>
+  </si>
+  <si>
+    <t>Health_Econ</t>
+  </si>
+  <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>Impeachment</t>
-  </si>
-  <si>
-    <t>Law_Govt</t>
-  </si>
-  <si>
-    <t>Crime</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>War</t>
-  </si>
-  <si>
-    <t>Trade_Agr</t>
-  </si>
-  <si>
-    <t>ReprHealth</t>
-  </si>
-  <si>
-    <t>Taxes</t>
-  </si>
-  <si>
-    <t>SocEq</t>
-  </si>
-  <si>
-    <t>Educ</t>
-  </si>
-  <si>
-    <t>Ethics</t>
-  </si>
-  <si>
-    <t>Health_Econ</t>
   </si>
 </sst>
 </file>
@@ -520,9 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6896744A-AD4F-4FCB-ABFA-7D9593AE4730}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -532,10 +530,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -543,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -551,7 +549,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -559,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -567,7 +565,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -575,7 +573,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -583,7 +581,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -591,7 +589,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -599,7 +597,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,10 +618,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -631,7 +629,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,7 +637,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,7 +645,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +685,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +693,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +701,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +709,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +717,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +725,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,7 +733,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +741,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,7 +749,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,7 +757,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -767,7 +765,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -775,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,7 +781,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
